--- a/fusion2urdf.xlsx
+++ b/fusion2urdf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\gilmar\Desktop\seer\seer_models\src\W3-600B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB3FE8E-0538-4EA5-9B6F-6B9A3C64036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5EF1B1-7C28-493C-9A56-2326D00321A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{070FAD60-F9A7-45B8-9AE9-B92C9C8EB45A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>General</t>
   </si>
@@ -143,31 +143,34 @@
     <t>Moment of Inertia at Origin   (g mm^2)</t>
   </si>
   <si>
-    <t>JZ2023070-S-17 Ïà»úÖ§¼Ü</t>
-  </si>
-  <si>
-    <t>340.526 g</t>
-  </si>
-  <si>
-    <t>43379.167 mm^3</t>
-  </si>
-  <si>
-    <t>40610.982 mm^2</t>
-  </si>
-  <si>
-    <t>0.00 mm, 17.00 mm, -38.00 mm</t>
-  </si>
-  <si>
-    <t>0.00 mm, 79.096 mm, -50.997 mm</t>
-  </si>
-  <si>
-    <t>70.00 mm</t>
-  </si>
-  <si>
-    <t>155.00 mm</t>
-  </si>
-  <si>
-    <t>45.00 mm</t>
+    <t>JZ2023070-P-27 ¶¥ÅÌ</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>58666.118 g</t>
+  </si>
+  <si>
+    <t>7.473E+06 mm^3</t>
+  </si>
+  <si>
+    <t>1.121E+06 mm^2</t>
+  </si>
+  <si>
+    <t>1.941E-09 mm, 211.50 mm, 0.00 mm</t>
+  </si>
+  <si>
+    <t>0.045 mm, 218.468 mm, -3.836E-10 mm</t>
+  </si>
+  <si>
+    <t>924.00 mm</t>
+  </si>
+  <si>
+    <t>14.00 mm</t>
+  </si>
+  <si>
+    <t>650.00 mm</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -587,7 +590,7 @@
       </c>
       <c r="F4" t="str">
         <f>CONCATENATE("&lt;origin xyz=""",I20," ",J20," ",K20,""" ","rpy=""0 0 0""/&gt;")</f>
-        <v>&lt;origin xyz="0 0.079096 -0.050997" rpy="0 0 0"/&gt;</v>
+        <v>&lt;origin xyz="0.000045 0.218468 -0.0000000000003836" rpy="0 0 0"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,13 +602,13 @@
       </c>
       <c r="F5" t="str">
         <f>CONCATENATE("&lt;mass value=""",F15,"""/&gt;")</f>
-        <v>&lt;mass value="0.340526"/&gt;</v>
+        <v>&lt;mass value="58.666118"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" t="str">
         <f>CONCATENATE("&lt;inertia ixx=""",F26,""" ixy=""",F27, """ ixz=""",F28, """ iyx=""",F29, """ iyy=""",F30,""" iyz=""",F31,""" izx=""",F32,""" izy=""",F33,""" izz=""",F34,"""/&gt;")</f>
-        <v>&lt;inertia ixx="0.0007119" ixy="-1.748E-19" ixz="0" iyx="-1.748E-19" iyy="0.0003175" iyz="-0.0001125" izx="0" izy="-0.0001125" izz="0.0009268"/&gt;</v>
+        <v>&lt;inertia ixx="2.038" ixy="0.000005613643" ixz="-0.000000000000003583" iyx="0.000005613643" iyy="5.914" iyz="-0.00000000000002564" izx="-0.000000000000003583" izy="-0.00000000000002564" izz="3.878"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,7 +617,7 @@
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE("&lt;mesh filename=""package://W3-600B/meshes/",C3,".stl"" scale=""0.001 0.001 0.001""/&gt;")</f>
-        <v>&lt;mesh filename="package://W3-600B/meshes/JZ2023070-S-17 Ïà»úÖ§¼Ü.stl" scale="0.001 0.001 0.001"/&gt;</v>
+        <v>&lt;mesh filename="package://W3-600B/meshes/platform.stl" scale="0.001 0.001 0.001"/&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,7 +631,7 @@
       </c>
       <c r="F9" t="str">
         <f>CONCATENATE("&lt;origin xyz=""",I19," ",J19," ",K19,""" ","rpy=""0 0 0""/&gt;")</f>
-        <v>&lt;origin xyz="0 0.017 -0.038" rpy="0 0 0"/&gt;</v>
+        <v>&lt;origin xyz="0.000000000001941 0.2115 0" rpy="0 0 0"/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -656,15 +659,15 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="str">
         <f>MID(C15,1,FIND("g",C15)-1)</f>
-        <v xml:space="preserve">340.526 </v>
+        <v xml:space="preserve">58666.118 </v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F19" si="0">VALUE(SUBSTITUTE(E15," mm",""))/1000</f>
-        <v>0.340526</v>
+        <f t="shared" ref="F15" si="0">VALUE(SUBSTITUTE(E15," mm",""))/1000</f>
+        <v>58.666118000000004</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,7 +675,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -688,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -696,31 +699,31 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" t="str">
         <f>MID(C19,1,FIND(",",C19)-1)</f>
-        <v>0.00 mm</v>
+        <v>1.941E-09 mm</v>
       </c>
       <c r="F19" t="str">
         <f>MID(C19,FIND(",",C19)+2,FIND(",",C19,FIND(",",C19)+1)-FIND(",",C19)-2)</f>
-        <v>17.00 mm</v>
+        <v>211.50 mm</v>
       </c>
       <c r="G19" t="str">
         <f>MID(C19,FIND(",",C19,FIND(",",C19)+1)+2,255)</f>
-        <v>-38.00 mm</v>
+        <v>0.00 mm</v>
       </c>
       <c r="I19">
-        <f>VALUE(SUBSTITUTE(E19," mm",""))/1000</f>
+        <f t="shared" ref="I19:K20" si="1">VALUE(SUBSTITUTE(E19," mm",""))/1000</f>
+        <v>1.9409999999999999E-12</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="J19">
-        <f>VALUE(SUBSTITUTE(F19," mm",""))/1000</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="K19">
-        <f>VALUE(SUBSTITUTE(G19," mm",""))/1000</f>
-        <v>-3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -728,31 +731,31 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" t="str">
         <f>MID(C20,1,FIND(",",C20)-1)</f>
-        <v>0.00 mm</v>
+        <v>0.045 mm</v>
       </c>
       <c r="F20" t="str">
         <f>MID(C20,FIND(",",C20)+2,FIND(",",C20,FIND(",",C20)+1)-FIND(",",C20)-2)</f>
-        <v>79.096 mm</v>
+        <v>218.468 mm</v>
       </c>
       <c r="G20" t="str">
         <f>MID(C20,FIND(",",C20,FIND(",",C20)+1)+2,255)</f>
-        <v>-50.997 mm</v>
+        <v>-3.836E-10 mm</v>
       </c>
       <c r="I20">
-        <f>VALUE(SUBSTITUTE(E20," mm",""))/1000</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.4999999999999996E-5</v>
       </c>
       <c r="J20">
-        <f>VALUE(SUBSTITUTE(F20," mm",""))/1000</f>
-        <v>7.9096E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.218468</v>
       </c>
       <c r="K20">
-        <f>VALUE(SUBSTITUTE(G20," mm",""))/1000</f>
-        <v>-5.0997000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.836E-13</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -765,7 +768,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -773,11 +776,11 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I23">
         <f>VALUE(SUBSTITUTE(D22," mm",""))/1000</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -785,15 +788,15 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I25" si="1">VALUE(SUBSTITUTE(D23," mm",""))/1000</f>
-        <v>0.155</v>
+        <f t="shared" ref="I24:I25" si="2">VALUE(SUBSTITUTE(D23," mm",""))/1000</f>
+        <v>1.4E-2</v>
       </c>
       <c r="J24">
         <f>I24/2</f>
-        <v>7.7499999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -801,8 +804,8 @@
         <v>24</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -810,11 +813,11 @@
         <v>25</v>
       </c>
       <c r="D26" s="1">
-        <v>711900</v>
+        <v>2038000000</v>
       </c>
       <c r="F26" s="1">
         <f>D26*0.000000001</f>
-        <v>7.1190000000000001E-4</v>
+        <v>2.0380000000000003</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -822,11 +825,11 @@
         <v>26</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.7480000000000001E-10</v>
+        <v>5613.643</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ref="F27:F34" si="2">D27*0.000000001</f>
-        <v>-1.7480000000000003E-19</v>
+        <f t="shared" ref="F27:F34" si="3">D27*0.000000001</f>
+        <v>5.613643E-6</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -834,11 +837,11 @@
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>0</v>
+        <v>-3.5829999999999998E-6</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-3.583E-15</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -846,11 +849,11 @@
         <v>28</v>
       </c>
       <c r="D29" s="1">
-        <v>-1.7480000000000001E-10</v>
+        <v>5613.643</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.7480000000000003E-19</v>
+        <f t="shared" si="3"/>
+        <v>5.613643E-6</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -858,11 +861,11 @@
         <v>29</v>
       </c>
       <c r="D30" s="1">
-        <v>317500</v>
+        <v>5914000000</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="2"/>
-        <v>3.1750000000000002E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.9140000000000006</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -870,11 +873,11 @@
         <v>30</v>
       </c>
       <c r="D31" s="1">
-        <v>-112500</v>
+        <v>-2.5639999999999998E-5</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.1250000000000001E-4</v>
+        <f t="shared" si="3"/>
+        <v>-2.5639999999999999E-14</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -882,11 +885,11 @@
         <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>-3.5829999999999998E-6</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-3.583E-15</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -894,11 +897,11 @@
         <v>32</v>
       </c>
       <c r="D33" s="1">
-        <v>-112500</v>
+        <v>-2.5639999999999998E-5</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.1250000000000001E-4</v>
+        <f t="shared" si="3"/>
+        <v>-2.5639999999999999E-14</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -906,11 +909,11 @@
         <v>33</v>
       </c>
       <c r="D34" s="1">
-        <v>926800</v>
+        <v>3878000000</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="2"/>
-        <v>9.2680000000000008E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.8780000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -923,7 +926,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="1">
-        <v>3728000</v>
+        <v>4838000000</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -931,7 +934,7 @@
         <v>26</v>
       </c>
       <c r="D37" s="1">
-        <v>3.017E-10</v>
+        <v>-571000</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -939,7 +942,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="2">
-        <v>-3.2879999999999999E-10</v>
+        <v>-2.571E-6</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -947,7 +950,7 @@
         <v>28</v>
       </c>
       <c r="D39" s="1">
-        <v>3.017E-10</v>
+        <v>-571000</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -955,7 +958,7 @@
         <v>29</v>
       </c>
       <c r="D40" s="1">
-        <v>1203000</v>
+        <v>5914000000</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -963,7 +966,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="2">
-        <v>1261000</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -971,7 +974,7 @@
         <v>31</v>
       </c>
       <c r="D42" s="2">
-        <v>-3.2879999999999999E-10</v>
+        <v>-2.571E-6</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -979,7 +982,7 @@
         <v>32</v>
       </c>
       <c r="D43" s="2">
-        <v>1261000</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -987,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="1">
-        <v>3057000</v>
+        <v>6678000000</v>
       </c>
     </row>
   </sheetData>
